--- a/quizzes/13. Pháp chế.xlsx
+++ b/quizzes/13. Pháp chế.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFB4B9E-1B6E-5F4E-8D86-955BCD070E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE57F96-BB16-004B-BE56-FEA95554CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="32000" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3709,8 +3709,7 @@
     <t xml:space="preserve">STT </t>
   </si>
   <si>
-    <t>TRÍCH DẪN 
-NGUỒN CÂU HỎI</t>
+    <t>TRÍCH DẪN NGUỒN</t>
   </si>
 </sst>
 </file>
@@ -4285,7 +4284,7 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
